--- a/Application/Reports/Week 10 (10 Oct 2016)/AccountReport (10 Oct 2016).xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/AccountReport (10 Oct 2016).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="14">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -78,19 +78,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Mon Oct 2016 13:37:15</t>
-  </si>
-  <si>
-    <t>Mon Oct 2016 13:37:16</t>
-  </si>
-  <si>
-    <t>NoName NoSurname</t>
-  </si>
-  <si>
-    <t>074 644 6895</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Mon Oct 2016 14:29:36</t>
   </si>
 </sst>
 </file>
@@ -4283,7 +4271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4385,165 +4373,11 @@
         <color indexed="8"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="817">
+  <cellXfs count="807">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5340,16 +5174,6 @@
     <xf numFmtId="0" fontId="420" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -6683,7 +6507,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="403">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6704,7 +6528,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.9375" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -6713,7 +6537,7 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="72.578125" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6812,48 +6636,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="434">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="435">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="436">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s" s="437">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="438">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="439">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="440">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="441">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="442">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="444">
-        <v>14</v>
+    <row r="5">
+      <c r="A5" t="s" s="434">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6880,104 +6672,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="445">
+      <c r="A1" t="s" s="435">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="446">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="447">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="448">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="449">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="450">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="451">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="452">
+      <c r="B1" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="438">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="439">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="440">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="441">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="442">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="453">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="454">
+      <c r="I1" t="s" s="443">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="444">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="455">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="456">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="457">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="458">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="459">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="460">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="461">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="462">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="463">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="464">
+      <c r="A2" t="s" s="445">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="446">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="447">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="448">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="449">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="450">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="451">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="452">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="453">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="454">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="465">
+      <c r="A3" t="s" s="455">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="466">
+      <c r="B3" t="s" s="456">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="467">
+      <c r="C3" t="s" s="457">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="468">
+      <c r="D3" t="s" s="458">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="469">
+      <c r="E3" t="s" s="459">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="470">
+      <c r="F3" t="s" s="460">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="471">
+      <c r="G3" t="s" s="461">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="472">
+      <c r="H3" t="s" s="462">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="473">
+      <c r="I3" t="s" s="463">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="474">
+      <c r="J3" t="s" s="464">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="475">
-        <v>14</v>
+      <c r="A5" t="s" s="465">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7011,104 +6803,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="476">
+      <c r="A1" t="s" s="466">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="477">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="478">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="479">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="480">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="481">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="482">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="483">
+      <c r="B1" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="468">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="469">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="470">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="471">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="473">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="484">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="485">
+      <c r="I1" t="s" s="474">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="475">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="486">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="487">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="488">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="489">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="490">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="491">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="492">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="493">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="494">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="495">
+      <c r="A2" t="s" s="476">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="477">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="478">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="479">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="480">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="481">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="482">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="483">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="485">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="496">
+      <c r="A3" t="s" s="486">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="497">
+      <c r="B3" t="s" s="487">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="498">
+      <c r="C3" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="499">
+      <c r="D3" t="s" s="489">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="500">
+      <c r="E3" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="501">
+      <c r="F3" t="s" s="491">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="502">
+      <c r="G3" t="s" s="492">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="503">
+      <c r="H3" t="s" s="493">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="504">
+      <c r="I3" t="s" s="494">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="505">
+      <c r="J3" t="s" s="495">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="506">
-        <v>14</v>
+      <c r="A5" t="s" s="496">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7142,104 +6934,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="507">
+      <c r="A1" t="s" s="497">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="508">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="509">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="510">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="511">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="512">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="513">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="514">
+      <c r="B1" t="s" s="498">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="499">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="500">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="501">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="502">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="503">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="504">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="515">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="516">
+      <c r="I1" t="s" s="505">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="506">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="517">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="518">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="519">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="520">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="521">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="522">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="523">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="524">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="525">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="526">
+      <c r="A2" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="508">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="510">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="511">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="512">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="513">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="514">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="515">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="516">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="527">
+      <c r="A3" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="528">
+      <c r="B3" t="s" s="518">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="529">
+      <c r="C3" t="s" s="519">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="530">
+      <c r="D3" t="s" s="520">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="531">
+      <c r="E3" t="s" s="521">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="532">
+      <c r="F3" t="s" s="522">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="533">
+      <c r="G3" t="s" s="523">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="534">
+      <c r="H3" t="s" s="524">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="535">
+      <c r="I3" t="s" s="525">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="536">
+      <c r="J3" t="s" s="526">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="537">
-        <v>14</v>
+      <c r="A5" t="s" s="527">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7273,104 +7065,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="538">
+      <c r="A1" t="s" s="528">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="540">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="541">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="542">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="543">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="544">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="545">
+      <c r="B1" t="s" s="529">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="530">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="535">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="546">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="547">
+      <c r="I1" t="s" s="536">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="537">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="548">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="549">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="550">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="551">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="552">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="553">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="554">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="555">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="556">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="557">
+      <c r="A2" t="s" s="538">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="540">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="546">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="547">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="558">
+      <c r="A3" t="s" s="548">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="559">
+      <c r="B3" t="s" s="549">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="560">
+      <c r="C3" t="s" s="550">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="561">
+      <c r="D3" t="s" s="551">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="562">
+      <c r="E3" t="s" s="552">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="563">
+      <c r="F3" t="s" s="553">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="564">
+      <c r="G3" t="s" s="554">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="565">
+      <c r="H3" t="s" s="555">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="566">
+      <c r="I3" t="s" s="556">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="567">
+      <c r="J3" t="s" s="557">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="568">
-        <v>14</v>
+      <c r="A5" t="s" s="558">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7404,104 +7196,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="569">
+      <c r="A1" t="s" s="559">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="570">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="571">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="572">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="573">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="574">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="575">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="576">
+      <c r="B1" t="s" s="560">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="561">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="562">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="563">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="564">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="565">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="566">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="577">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="578">
+      <c r="I1" t="s" s="567">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="568">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="579">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="580">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="581">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="582">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="583">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="584">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="585">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="586">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="587">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="588">
+      <c r="A2" t="s" s="569">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="570">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="571">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="572">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="573">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="574">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="575">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="576">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="577">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="578">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="589">
+      <c r="A3" t="s" s="579">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="590">
+      <c r="B3" t="s" s="580">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="591">
+      <c r="C3" t="s" s="581">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="592">
+      <c r="D3" t="s" s="582">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="593">
+      <c r="E3" t="s" s="583">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="594">
+      <c r="F3" t="s" s="584">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="595">
+      <c r="G3" t="s" s="585">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="596">
+      <c r="H3" t="s" s="586">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="597">
+      <c r="I3" t="s" s="587">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="598">
+      <c r="J3" t="s" s="588">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="599">
-        <v>14</v>
+      <c r="A5" t="s" s="589">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7666,104 +7458,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="600">
+      <c r="A1" t="s" s="590">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="601">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="602">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="603">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="604">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="605">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="606">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="607">
+      <c r="B1" t="s" s="591">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="592">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="593">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="594">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="595">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="596">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="597">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="608">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="609">
+      <c r="I1" t="s" s="598">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="599">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="610">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="611">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="612">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="613">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="614">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="615">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="616">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="617">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="618">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="619">
+      <c r="A2" t="s" s="600">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="601">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="602">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="603">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="604">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="605">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="606">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="607">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="608">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="609">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="620">
+      <c r="A3" t="s" s="610">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="621">
+      <c r="B3" t="s" s="611">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="622">
+      <c r="C3" t="s" s="612">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="623">
+      <c r="D3" t="s" s="613">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="624">
+      <c r="E3" t="s" s="614">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="625">
+      <c r="F3" t="s" s="615">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="626">
+      <c r="G3" t="s" s="616">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="627">
+      <c r="H3" t="s" s="617">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="628">
+      <c r="I3" t="s" s="618">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="629">
+      <c r="J3" t="s" s="619">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="630">
-        <v>14</v>
+      <c r="A5" t="s" s="620">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7797,104 +7589,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="631">
+      <c r="A1" t="s" s="621">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="632">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="633">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="634">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="635">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="636">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="637">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="638">
+      <c r="B1" t="s" s="622">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="623">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="624">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="625">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="626">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="627">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="628">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="639">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="640">
+      <c r="I1" t="s" s="629">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="630">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="641">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="642">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="643">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="644">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="645">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="646">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="647">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="648">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="649">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="650">
+      <c r="A2" t="s" s="631">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="632">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="633">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="634">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="635">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="636">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="637">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="638">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="639">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="640">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="651">
+      <c r="A3" t="s" s="641">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="652">
+      <c r="B3" t="s" s="642">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="653">
+      <c r="C3" t="s" s="643">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="654">
+      <c r="D3" t="s" s="644">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="655">
+      <c r="E3" t="s" s="645">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="656">
+      <c r="F3" t="s" s="646">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="657">
+      <c r="G3" t="s" s="647">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="658">
+      <c r="H3" t="s" s="648">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="659">
+      <c r="I3" t="s" s="649">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="660">
+      <c r="J3" t="s" s="650">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="661">
-        <v>14</v>
+      <c r="A5" t="s" s="651">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7928,104 +7720,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="662">
+      <c r="A1" t="s" s="652">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="663">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="664">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="665">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="666">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="667">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="668">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="669">
+      <c r="B1" t="s" s="653">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="654">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="657">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="658">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="659">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="670">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="671">
+      <c r="I1" t="s" s="660">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="661">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="672">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="673">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="674">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="675">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="676">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="677">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="678">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="679">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="680">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="681">
+      <c r="A2" t="s" s="662">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="663">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="664">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="665">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="666">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="667">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="668">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="669">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="670">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="671">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="682">
+      <c r="A3" t="s" s="672">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="683">
+      <c r="B3" t="s" s="673">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="684">
+      <c r="C3" t="s" s="674">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="685">
+      <c r="D3" t="s" s="675">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="686">
+      <c r="E3" t="s" s="676">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="687">
+      <c r="F3" t="s" s="677">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="688">
+      <c r="G3" t="s" s="678">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="689">
+      <c r="H3" t="s" s="679">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="690">
+      <c r="I3" t="s" s="680">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="691">
+      <c r="J3" t="s" s="681">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="692">
-        <v>14</v>
+      <c r="A5" t="s" s="682">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8059,104 +7851,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="693">
+      <c r="A1" t="s" s="683">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="694">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="695">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="696">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="697">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="698">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="699">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="700">
+      <c r="B1" t="s" s="684">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="685">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="686">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="687">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="688">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="689">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="690">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="701">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="702">
+      <c r="I1" t="s" s="691">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="692">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="703">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="704">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="705">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="706">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="707">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="708">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="709">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="710">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="711">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="712">
+      <c r="A2" t="s" s="693">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="694">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="699">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="700">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="701">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="702">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="713">
+      <c r="A3" t="s" s="703">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="714">
+      <c r="B3" t="s" s="704">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="715">
+      <c r="C3" t="s" s="705">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="716">
+      <c r="D3" t="s" s="706">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="717">
+      <c r="E3" t="s" s="707">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="718">
+      <c r="F3" t="s" s="708">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="719">
+      <c r="G3" t="s" s="709">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="720">
+      <c r="H3" t="s" s="710">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="721">
+      <c r="I3" t="s" s="711">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="722">
+      <c r="J3" t="s" s="712">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="723">
-        <v>14</v>
+      <c r="A5" t="s" s="713">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8190,104 +7982,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="724">
+      <c r="A1" t="s" s="714">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="725">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="726">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="727">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="728">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="729">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="730">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="731">
+      <c r="B1" t="s" s="715">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="716">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="717">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="718">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="719">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="720">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="721">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="732">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="733">
+      <c r="I1" t="s" s="722">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="723">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="734">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="735">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="736">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="737">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="738">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="739">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="740">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="741">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="742">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="743">
+      <c r="A2" t="s" s="724">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="725">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="726">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="727">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="728">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="729">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="730">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="731">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="732">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="733">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="744">
+      <c r="A3" t="s" s="734">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="745">
+      <c r="B3" t="s" s="735">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="746">
+      <c r="C3" t="s" s="736">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="747">
+      <c r="D3" t="s" s="737">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="748">
+      <c r="E3" t="s" s="738">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="749">
+      <c r="F3" t="s" s="739">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="750">
+      <c r="G3" t="s" s="740">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="751">
+      <c r="H3" t="s" s="741">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="752">
+      <c r="I3" t="s" s="742">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="753">
+      <c r="J3" t="s" s="743">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="754">
-        <v>14</v>
+      <c r="A5" t="s" s="744">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8321,104 +8113,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="755">
+      <c r="A1" t="s" s="745">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="756">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="757">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="758">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="759">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="760">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="761">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="762">
+      <c r="B1" t="s" s="746">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="747">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="748">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="749">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="750">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="751">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="752">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="763">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="764">
+      <c r="I1" t="s" s="753">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="754">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="765">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="766">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="767">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="768">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="769">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="770">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="771">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="772">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="773">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="774">
+      <c r="A2" t="s" s="755">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="756">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="757">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="758">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="759">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="760">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="761">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="762">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="763">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="764">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="775">
+      <c r="A3" t="s" s="765">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="776">
+      <c r="B3" t="s" s="766">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="777">
+      <c r="C3" t="s" s="767">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="778">
+      <c r="D3" t="s" s="768">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="779">
+      <c r="E3" t="s" s="769">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="780">
+      <c r="F3" t="s" s="770">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="781">
+      <c r="G3" t="s" s="771">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="782">
+      <c r="H3" t="s" s="772">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="783">
+      <c r="I3" t="s" s="773">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="784">
+      <c r="J3" t="s" s="774">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="785">
-        <v>14</v>
+      <c r="A5" t="s" s="775">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8452,104 +8244,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="786">
+      <c r="A1" t="s" s="776">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="787">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="788">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="789">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="790">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="791">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="792">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="793">
+      <c r="B1" t="s" s="777">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="778">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="779">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="780">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="781">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="782">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="783">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="794">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="795">
+      <c r="I1" t="s" s="784">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="785">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="796">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="797">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="798">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="799">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="800">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="801">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="802">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="803">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="804">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="805">
+      <c r="A2" t="s" s="786">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="787">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="788">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="789">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="790">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="791">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="792">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="793">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="794">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="795">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="806">
+      <c r="A3" t="s" s="796">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="807">
+      <c r="B3" t="s" s="797">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="808">
+      <c r="C3" t="s" s="798">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="809">
+      <c r="D3" t="s" s="799">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="810">
+      <c r="E3" t="s" s="800">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="811">
+      <c r="F3" t="s" s="801">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="812">
+      <c r="G3" t="s" s="802">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="813">
+      <c r="H3" t="s" s="803">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="814">
+      <c r="I3" t="s" s="804">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="815">
+      <c r="J3" t="s" s="805">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="816">
-        <v>14</v>
+      <c r="A5" t="s" s="806">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Application/Reports/Week 10 (10 Oct 2016)/AccountReport (10 Oct 2016).xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/AccountReport (10 Oct 2016).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="15">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -78,7 +78,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Mon Oct 2016 14:29:36</t>
+    <t>Tue Oct 2016 10:22:47</t>
+  </si>
+  <si>
+    <t>Tue Oct 2016 10:22:48</t>
   </si>
 </sst>
 </file>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="310">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="341">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6376,7 +6379,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="372">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6507,7 +6510,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="403">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6638,7 +6641,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="434">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6769,7 +6772,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="465">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6903,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="496">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7031,7 +7034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="527">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7162,7 +7165,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="558">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7293,7 +7296,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="589">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7555,7 +7558,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="620">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7686,7 +7689,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="651">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7817,7 +7820,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="682">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7948,7 +7951,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="713">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8082,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="744">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8210,7 +8213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="775">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8341,7 +8344,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="806">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -9127,7 +9130,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="248">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -9258,7 +9261,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="279">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Application/Reports/Week 10 (10 Oct 2016)/AccountReport (10 Oct 2016).xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/AccountReport (10 Oct 2016).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="17">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -78,10 +78,16 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Tue Oct 2016 10:22:47</t>
+    <t>Wed Oct 2016 11:11:54</t>
   </si>
   <si>
-    <t>Tue Oct 2016 10:22:48</t>
+    <t>Oliver Queen</t>
+  </si>
+  <si>
+    <t>064 118 6549</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -4274,7 +4280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -4376,11 +4382,165 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="807">
+  <cellXfs count="817">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5348,6 +5508,16 @@
     <xf numFmtId="0" fontId="510" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -6117,7 +6287,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="310">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6248,7 +6418,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="341">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6379,7 +6549,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="372">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6510,7 +6680,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="403">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6641,7 +6811,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="434">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6772,7 +6942,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="465">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6903,7 +7073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="496">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6924,7 +7094,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="12.1875" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -6933,7 +7103,7 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="76.328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7032,16 +7202,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="527">
+    <row r="4">
+      <c r="A4" t="s" s="527">
         <v>14</v>
+      </c>
+      <c r="B4" t="s" s="528">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="529">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="530">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="535">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="537">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7068,104 +7270,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="528">
+      <c r="A1" t="s" s="538">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="529">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="530">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="531">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="532">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="533">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="534">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="535">
+      <c r="B1" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="540">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="545">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="536">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="537">
+      <c r="I1" t="s" s="546">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="547">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="538">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="540">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="541">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="542">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="543">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="544">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="545">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="546">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="547">
+      <c r="A2" t="s" s="548">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="549">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="550">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="551">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="552">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="553">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="554">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="555">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="556">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="557">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="548">
+      <c r="A3" t="s" s="558">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="549">
+      <c r="B3" t="s" s="559">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="550">
+      <c r="C3" t="s" s="560">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="551">
+      <c r="D3" t="s" s="561">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="552">
+      <c r="E3" t="s" s="562">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="553">
+      <c r="F3" t="s" s="563">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="554">
+      <c r="G3" t="s" s="564">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="555">
+      <c r="H3" t="s" s="565">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="556">
+      <c r="I3" t="s" s="566">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="557">
+      <c r="J3" t="s" s="567">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="558">
-        <v>14</v>
+      <c r="A5" t="s" s="568">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7199,104 +7401,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="559">
+      <c r="A1" t="s" s="569">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="560">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="561">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="562">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="563">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="564">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="565">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="566">
+      <c r="B1" t="s" s="570">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="571">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="572">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="573">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="574">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="575">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="576">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="567">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="568">
+      <c r="I1" t="s" s="577">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="578">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="569">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="570">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="571">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="572">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="573">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="574">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="575">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="576">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="577">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="578">
+      <c r="A2" t="s" s="579">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="580">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="581">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="582">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="585">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="586">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="587">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="588">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="579">
+      <c r="A3" t="s" s="589">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="580">
+      <c r="B3" t="s" s="590">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="581">
+      <c r="C3" t="s" s="591">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="582">
+      <c r="D3" t="s" s="592">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="583">
+      <c r="E3" t="s" s="593">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="584">
+      <c r="F3" t="s" s="594">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="585">
+      <c r="G3" t="s" s="595">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="586">
+      <c r="H3" t="s" s="596">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="587">
+      <c r="I3" t="s" s="597">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="588">
+      <c r="J3" t="s" s="598">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="589">
-        <v>14</v>
+      <c r="A5" t="s" s="599">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7461,104 +7663,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="590">
+      <c r="A1" t="s" s="600">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="591">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="592">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="593">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="594">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="595">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="596">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="597">
+      <c r="B1" t="s" s="601">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="602">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="603">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="604">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="605">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="606">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="607">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="598">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="599">
+      <c r="I1" t="s" s="608">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="609">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="600">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="601">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="602">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="603">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="604">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="605">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="606">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="607">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="608">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="609">
+      <c r="A2" t="s" s="610">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="611">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="612">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="613">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="614">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="615">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="616">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="617">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="618">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="619">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="610">
+      <c r="A3" t="s" s="620">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="611">
+      <c r="B3" t="s" s="621">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="612">
+      <c r="C3" t="s" s="622">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="613">
+      <c r="D3" t="s" s="623">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="614">
+      <c r="E3" t="s" s="624">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="615">
+      <c r="F3" t="s" s="625">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="616">
+      <c r="G3" t="s" s="626">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="617">
+      <c r="H3" t="s" s="627">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="618">
+      <c r="I3" t="s" s="628">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="619">
+      <c r="J3" t="s" s="629">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="620">
-        <v>14</v>
+      <c r="A5" t="s" s="630">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7592,104 +7794,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="621">
+      <c r="A1" t="s" s="631">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="622">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="623">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="624">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="625">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="626">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="627">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="628">
+      <c r="B1" t="s" s="632">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="633">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="634">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="635">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="636">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="637">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="638">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="629">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="630">
+      <c r="I1" t="s" s="639">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="640">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="631">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="632">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="633">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="634">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="635">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="636">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="637">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="638">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="639">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="640">
+      <c r="A2" t="s" s="641">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="642">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="643">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="645">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="646">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="647">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="648">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="649">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="650">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="641">
+      <c r="A3" t="s" s="651">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="642">
+      <c r="B3" t="s" s="652">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="643">
+      <c r="C3" t="s" s="653">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="644">
+      <c r="D3" t="s" s="654">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="645">
+      <c r="E3" t="s" s="655">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="646">
+      <c r="F3" t="s" s="656">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="647">
+      <c r="G3" t="s" s="657">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="648">
+      <c r="H3" t="s" s="658">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="649">
+      <c r="I3" t="s" s="659">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="650">
+      <c r="J3" t="s" s="660">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="651">
-        <v>14</v>
+      <c r="A5" t="s" s="661">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7723,104 +7925,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="652">
+      <c r="A1" t="s" s="662">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="653">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="654">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="655">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="656">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="657">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="658">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="659">
+      <c r="B1" t="s" s="663">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="664">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="665">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="666">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="667">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="668">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="669">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="660">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="661">
+      <c r="I1" t="s" s="670">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="671">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="662">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="663">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="664">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="665">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="666">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="667">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="668">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="669">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="670">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="671">
+      <c r="A2" t="s" s="672">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="673">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="674">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="675">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="676">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="677">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="678">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="679">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="680">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="681">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="672">
+      <c r="A3" t="s" s="682">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="673">
+      <c r="B3" t="s" s="683">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="674">
+      <c r="C3" t="s" s="684">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="675">
+      <c r="D3" t="s" s="685">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="676">
+      <c r="E3" t="s" s="686">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="677">
+      <c r="F3" t="s" s="687">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="678">
+      <c r="G3" t="s" s="688">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="679">
+      <c r="H3" t="s" s="689">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="680">
+      <c r="I3" t="s" s="690">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="681">
+      <c r="J3" t="s" s="691">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="682">
-        <v>14</v>
+      <c r="A5" t="s" s="692">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7854,104 +8056,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="683">
+      <c r="A1" t="s" s="693">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="684">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="685">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="686">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="687">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="688">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="689">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="690">
+      <c r="B1" t="s" s="694">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="699">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="700">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="691">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="692">
+      <c r="I1" t="s" s="701">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="702">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="693">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="694">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="695">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="696">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="697">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="698">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="699">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="700">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="701">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="702">
+      <c r="A2" t="s" s="703">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="704">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="705">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="706">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="707">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="708">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="709">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="710">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="711">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="712">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="703">
+      <c r="A3" t="s" s="713">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="704">
+      <c r="B3" t="s" s="714">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="705">
+      <c r="C3" t="s" s="715">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="706">
+      <c r="D3" t="s" s="716">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="707">
+      <c r="E3" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="708">
+      <c r="F3" t="s" s="718">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="709">
+      <c r="G3" t="s" s="719">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="710">
+      <c r="H3" t="s" s="720">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="711">
+      <c r="I3" t="s" s="721">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="712">
+      <c r="J3" t="s" s="722">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="713">
-        <v>14</v>
+      <c r="A5" t="s" s="723">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7985,104 +8187,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="714">
+      <c r="A1" t="s" s="724">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="715">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="716">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="717">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="718">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="719">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="720">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="721">
+      <c r="B1" t="s" s="725">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="726">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="727">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="728">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="729">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="730">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="731">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="722">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="723">
+      <c r="I1" t="s" s="732">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="733">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="724">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="725">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="726">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="727">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="728">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="729">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="730">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="731">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="732">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="733">
+      <c r="A2" t="s" s="734">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="735">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="736">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="737">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="738">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="739">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="740">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="741">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="742">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="743">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="734">
+      <c r="A3" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="735">
+      <c r="B3" t="s" s="745">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="736">
+      <c r="C3" t="s" s="746">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="737">
+      <c r="D3" t="s" s="747">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="738">
+      <c r="E3" t="s" s="748">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="739">
+      <c r="F3" t="s" s="749">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="740">
+      <c r="G3" t="s" s="750">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="741">
+      <c r="H3" t="s" s="751">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="742">
+      <c r="I3" t="s" s="752">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="743">
+      <c r="J3" t="s" s="753">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="744">
-        <v>14</v>
+      <c r="A5" t="s" s="754">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8116,104 +8318,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="745">
+      <c r="A1" t="s" s="755">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="746">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="747">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="748">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="749">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="750">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="751">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="752">
+      <c r="B1" t="s" s="756">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="757">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="758">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="759">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="760">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="761">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="762">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="753">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="754">
+      <c r="I1" t="s" s="763">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="764">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="755">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="756">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="757">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="758">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="759">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="760">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="761">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="762">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="763">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="764">
+      <c r="A2" t="s" s="765">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="766">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="767">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="768">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="769">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="770">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="771">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="772">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="773">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="774">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="765">
+      <c r="A3" t="s" s="775">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="766">
+      <c r="B3" t="s" s="776">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="767">
+      <c r="C3" t="s" s="777">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="768">
+      <c r="D3" t="s" s="778">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="769">
+      <c r="E3" t="s" s="779">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="770">
+      <c r="F3" t="s" s="780">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="771">
+      <c r="G3" t="s" s="781">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="772">
+      <c r="H3" t="s" s="782">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="773">
+      <c r="I3" t="s" s="783">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="774">
+      <c r="J3" t="s" s="784">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="775">
-        <v>14</v>
+      <c r="A5" t="s" s="785">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8247,104 +8449,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="776">
+      <c r="A1" t="s" s="786">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="777">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="778">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="779">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="780">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="781">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="782">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="783">
+      <c r="B1" t="s" s="787">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="788">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="789">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="790">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="791">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="792">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="793">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="784">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="785">
+      <c r="I1" t="s" s="794">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="795">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="786">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="787">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="788">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="789">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="790">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="791">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="792">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="793">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="794">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="795">
+      <c r="A2" t="s" s="796">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="797">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="798">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="799">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="800">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="801">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="802">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="803">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="804">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="805">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="796">
+      <c r="A3" t="s" s="806">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="797">
+      <c r="B3" t="s" s="807">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="798">
+      <c r="C3" t="s" s="808">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="799">
+      <c r="D3" t="s" s="809">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="800">
+      <c r="E3" t="s" s="810">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="801">
+      <c r="F3" t="s" s="811">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="802">
+      <c r="G3" t="s" s="812">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="803">
+      <c r="H3" t="s" s="813">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="804">
+      <c r="I3" t="s" s="814">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="805">
+      <c r="J3" t="s" s="815">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="806">
-        <v>14</v>
+      <c r="A5" t="s" s="816">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9130,7 +9332,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="248">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9261,7 +9463,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="279">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
